--- a/docs/BQueue.xlsx
+++ b/docs/BQueue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ruby\bar\BatchQueue\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAR\Desktop\project\v3\BatchQueue\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B3EFE8-E11F-4000-9C80-4717C19F01A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E26988C-F671-4590-A0D9-E21A60DE794D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B0BFDA1C-0EF8-4FC2-8989-DE35E1016FF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B0BFDA1C-0EF8-4FC2-8989-DE35E1016FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -71,7 +71,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,1681 +116,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>גיליון4!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sum op</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>גיליון4!$A$2:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>גיליון4!$N$2:$N$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>2653005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4563160</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5944059.2000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5152382.4000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4785859.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4157689.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3655609.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3110425.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FA02-472E-8E0C-BEF2D06D7D9C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="617382392"/>
-        <c:axId val="617378784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="617382392"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="617378784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="617378784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="617382392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>sum op</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>sum op</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{71461615-2881-4C3C-99A8-CC48E8F19B33}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>sum op</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{CDD72A16-DD79-43D0-92B6-C5F271026618}">
-          <cx:axisId val="2"/>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="2">
-        <cx:valScaling max="1" min="0"/>
-        <cx:units unit="percentage"/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="תרשים 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B7E080-B9B6-422E-BF9E-9E103F9A834A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9980745850" y="146050"/>
-              <a:ext cx="4216400" cy="2824480"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>36830</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>595630</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="תרשים 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAFFD59-255E-4068-A983-2E81F264AE3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2088,15 +415,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082188BC-EF94-41B7-BC4A-8F4906E921DE}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:N25"/>
-    </sheetView>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3257,14 +1582,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EC3964-C2A1-4989-85C8-672EA3B12D69}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3682,7 +2006,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3690,11 +2013,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179ACB2B-6226-405E-A3EA-49103A721D31}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4118,11 +2444,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E588C19-3DA7-4A42-BB5B-E13C48943A84}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4539,6 +2868,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>